--- a/eis_liquid_dataset.xlsx
+++ b/eis_liquid_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milessmith/Documents/GitHub/mit-tri-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C99CCBE-2C1E-F844-A290-1D2E1F5A1A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947753A-8CC6-7F47-9892-42EC4487671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40140" yWindow="-3340" windowWidth="24000" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -72,15 +72,18 @@
   </si>
   <si>
     <t>1 M NaPF6 in G4 (Cycle 201)</t>
+  </si>
+  <si>
+    <t>1 M NaPF6 in G4 (Cycle 1)</t>
+  </si>
+  <si>
+    <t>1 M NaPF6 in G4 (Cycle 158)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +113,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,18 +417,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20240313</v>
       </c>
@@ -469,11 +472,10 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>2.5620049311080627E-3</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5620049311080632E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20240313</v>
       </c>
@@ -495,9 +497,8 @@
       <c r="G3">
         <v>2.6904395859083802E-3</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20240313</v>
       </c>
@@ -519,9 +520,8 @@
       <c r="G4">
         <v>4.6430224748953549E-3</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20240313</v>
       </c>
@@ -541,11 +541,10 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>2.8842665676254917E-3</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8842665676254921E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20240313</v>
       </c>
@@ -567,9 +566,8 @@
       <c r="G6">
         <v>4.1110790120491587E-3</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20240313</v>
       </c>
@@ -589,11 +587,10 @@
         <v>25</v>
       </c>
       <c r="G7">
-        <v>1.2462375577255648E-3</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.246237557725565E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20240313</v>
       </c>
@@ -615,9 +612,8 @@
       <c r="G8">
         <v>1.4511845775390911E-3</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20240313</v>
       </c>
@@ -637,11 +633,10 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>1.2044602601535368E-3</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.204460260153537E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20240313</v>
       </c>
@@ -661,11 +656,10 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <v>1.2717256967288114E-3</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.271725696728811E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20240313</v>
       </c>
@@ -685,11 +679,10 @@
         <v>201</v>
       </c>
       <c r="G11">
-        <v>1.8458332369873287E-3</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.8458332369873289E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20240313</v>
       </c>
@@ -709,11 +702,10 @@
         <v>201</v>
       </c>
       <c r="G12">
-        <v>1.3045204019471782E-3</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.304520401947178E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20240313</v>
       </c>
@@ -735,9 +727,8 @@
       <c r="G13">
         <v>2.0058334957037062E-3</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20240313</v>
       </c>
@@ -759,9 +750,8 @@
       <c r="G14">
         <v>1.461471841769286E-3</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20240313</v>
       </c>
@@ -781,11 +771,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.3261231955296235E-3</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.326123195529624E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20240313</v>
       </c>
@@ -807,7 +796,52 @@
       <c r="G16">
         <v>1.1964647655691319E-3</v>
       </c>
-      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20240313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>104413</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.3115161162930235E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20240313</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>104413</v>
+      </c>
+      <c r="F18">
+        <v>158</v>
+      </c>
+      <c r="G18">
+        <v>8.7493927762262783E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
